--- a/FUNCION HASH/RESULTADOS/mining_global_sizes/resultados.xlsx
+++ b/FUNCION HASH/RESULTADOS/mining_global_sizes/resultados.xlsx
@@ -14,33 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Local Size</t>
-  </si>
-  <si>
-    <t>(1,)</t>
-  </si>
-  <si>
-    <t>(2,)</t>
-  </si>
-  <si>
-    <t>(4,)</t>
-  </si>
-  <si>
-    <t>(8,)</t>
-  </si>
-  <si>
-    <t>(16,)</t>
-  </si>
-  <si>
-    <t>(32,)</t>
-  </si>
-  <si>
-    <t>(64,)</t>
-  </si>
-  <si>
-    <t>(128,)</t>
   </si>
 </sst>
 </file>
@@ -402,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,7 +388,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2">
         <v>128</v>
       </c>
@@ -436,216 +414,211 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>9.515600000000001E-05</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.000100729</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.000226458</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.0006644270000000001</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.000358541</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.0006029680000000001</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.002510364</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>5.8272E-05</v>
+        <v>7.9739E-05</v>
       </c>
       <c r="C3" s="1">
-        <v>0.000106496</v>
+        <v>8.151000000000001E-05</v>
       </c>
       <c r="D3" s="1">
-        <v>0.000175424</v>
+        <v>0.000370833</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000416768</v>
+        <v>0.000408333</v>
       </c>
       <c r="F3" s="1">
-        <v>0.001700864</v>
+        <v>0.000232239</v>
       </c>
       <c r="G3" s="1">
-        <v>0.012957664</v>
+        <v>0.000405937</v>
       </c>
       <c r="H3" s="1">
-        <v>0.388736352</v>
+        <v>0.00135625</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>2.256E-05</v>
+        <v>0.000230885</v>
       </c>
       <c r="C4" s="1">
-        <v>6.2464E-05</v>
+        <v>0.000417031</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0001024</v>
+        <v>8.088500000000001E-05</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000173056</v>
+        <v>9.458300000000001E-05</v>
       </c>
       <c r="F4" s="1">
-        <v>0.00086016</v>
+        <v>0.000300572</v>
       </c>
       <c r="G4" s="1">
-        <v>0.006526784000000001</v>
+        <v>0.0006103640000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>0.177581728</v>
+        <v>0.0008685930000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>2.0576E-05</v>
+        <v>7.776E-05</v>
       </c>
       <c r="C5" s="1">
-        <v>2.1504E-05</v>
+        <v>0.000198489</v>
       </c>
       <c r="D5" s="1">
-        <v>5.7216E-05</v>
+        <v>0.000355156</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000100096</v>
+        <v>0.000471614</v>
       </c>
       <c r="F5" s="1">
-        <v>0.000417664</v>
+        <v>0.000293281</v>
       </c>
       <c r="G5" s="1">
-        <v>0.00332272</v>
+        <v>0.000393437</v>
       </c>
       <c r="H5" s="1">
-        <v>0.08926412800000001</v>
+        <v>0.0008356770000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>16</v>
       </c>
       <c r="B6" s="1">
-        <v>1.7248E-05</v>
+        <v>0.000107291</v>
       </c>
       <c r="C6" s="1">
-        <v>1.76E-05</v>
+        <v>0.000160468</v>
       </c>
       <c r="D6" s="1">
-        <v>2.2496E-05</v>
+        <v>9.276E-05</v>
       </c>
       <c r="E6" s="1">
-        <v>5.212800000000001E-05</v>
+        <v>0.000260052</v>
       </c>
       <c r="F6" s="1">
-        <v>0.000178912</v>
+        <v>0.000209531</v>
       </c>
       <c r="G6" s="1">
-        <v>0.001692864</v>
+        <v>0.000728593</v>
       </c>
       <c r="H6" s="1">
-        <v>0.046069664</v>
+        <v>0.0006908330000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>32</v>
       </c>
       <c r="B7" s="1">
-        <v>1.744E-05</v>
+        <v>8.5468E-05</v>
       </c>
       <c r="C7" s="1">
-        <v>1.7504E-05</v>
+        <v>8.281200000000001E-05</v>
       </c>
       <c r="D7" s="1">
-        <v>1.7408E-05</v>
+        <v>8.6197E-05</v>
       </c>
       <c r="E7" s="1">
-        <v>2.1504E-05</v>
+        <v>0.00024026</v>
       </c>
       <c r="F7" s="1">
-        <v>0.000106592</v>
+        <v>0.000254375</v>
       </c>
       <c r="G7" s="1">
-        <v>0.0008342400000000001</v>
+        <v>0.000356614</v>
       </c>
       <c r="H7" s="1">
-        <v>0.022106048</v>
+        <v>0.0008191660000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>64</v>
       </c>
       <c r="B8" s="1">
-        <v>1.8432E-05</v>
+        <v>0.000202447</v>
       </c>
       <c r="C8" s="1">
-        <v>1.7408E-05</v>
+        <v>0.000258281</v>
       </c>
       <c r="D8" s="1">
-        <v>1.7408E-05</v>
+        <v>0.000177864</v>
       </c>
       <c r="E8" s="1">
-        <v>1.7408E-05</v>
+        <v>8.843700000000001E-05</v>
       </c>
       <c r="F8" s="1">
-        <v>5.6064E-05</v>
+        <v>0.000416875</v>
       </c>
       <c r="G8" s="1">
-        <v>0.000410624</v>
+        <v>0.000452916</v>
       </c>
       <c r="H8" s="1">
-        <v>0.011039744</v>
+        <v>0.0006321870000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>128</v>
       </c>
       <c r="B9" s="1">
-        <v>1.856E-05</v>
+        <v>7.7916E-05</v>
       </c>
       <c r="C9" s="1">
-        <v>1.8432E-05</v>
+        <v>0.000422604</v>
       </c>
       <c r="D9" s="1">
-        <v>1.9232E-05</v>
+        <v>0.000504739</v>
       </c>
       <c r="E9" s="1">
-        <v>2.3552E-05</v>
+        <v>0.000257916</v>
       </c>
       <c r="F9" s="1">
-        <v>6.1344E-05</v>
+        <v>0.000338385</v>
       </c>
       <c r="G9" s="1">
-        <v>0.000412672</v>
+        <v>0.000484322</v>
       </c>
       <c r="H9" s="1">
-        <v>0.01117184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1.9232E-05</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.9392E-05</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.872E-05</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2.3552E-05</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5.8368E-05</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.000407648</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.013891584</v>
+        <v>0.0006638540000000001</v>
       </c>
     </row>
   </sheetData>
